--- a/data/trans_camb/P2C_R-Dificultad-trans_camb.xlsx
+++ b/data/trans_camb/P2C_R-Dificultad-trans_camb.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>17.52435451015156</v>
+        <v>17.53756932713152</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>18.38567628093779</v>
+        <v>18.41561838200203</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-18.7237689588806</v>
+        <v>-18.93505920801081</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>17.92853734792816</v>
+        <v>18.14075967384703</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>8.600663842973661</v>
+        <v>8.71178322163764</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-28.33038585966658</v>
+        <v>-28.2352197895489</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>17.88425844007777</v>
+        <v>17.60147375776588</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>13.22420737668083</v>
+        <v>13.36753318900254</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-24.2850914698374</v>
+        <v>-23.95259541590441</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>29.86432225111276</v>
+        <v>29.92234904253684</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>31.34697951109316</v>
+        <v>30.81300081104467</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-7.536941448997342</v>
+        <v>-7.629760958556514</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>28.15036438535437</v>
+        <v>28.26741765826193</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>18.81550976837627</v>
+        <v>19.31361196855936</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>-18.59351036632949</v>
+        <v>-18.73746908001216</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>25.73897864877567</v>
+        <v>25.37953566489024</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>20.92826324895512</v>
+        <v>21.14399331838794</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>-17.16911553938541</v>
+        <v>-16.99205224935053</v>
       </c>
     </row>
     <row r="7">
@@ -760,7 +760,7 @@
         <v>0.3288546178313894</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>-0.5673528950977398</v>
+        <v>-0.5673528950977397</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>0.5997277469432599</v>
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>0.5830016900542127</v>
+        <v>0.5905342651994685</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.6015582599198465</v>
+        <v>0.6207211250403515</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.6459000271069302</v>
+        <v>-0.6520641847800148</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.4034098184692936</v>
+        <v>0.4110198134350107</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.1963677301662722</v>
+        <v>0.1963021847760788</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.6438088574950671</v>
+        <v>-0.6433211555445786</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.4600870079466419</v>
+        <v>0.4595739416364023</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.3373384003225904</v>
+        <v>0.3522191061649502</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.638844612952583</v>
+        <v>-0.6329455818764069</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>1.351866880772357</v>
+        <v>1.385978277898769</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>1.416907089672506</v>
+        <v>1.390948941141337</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>-0.3212084457926725</v>
+        <v>-0.3524627885273631</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.7370907165871396</v>
+        <v>0.760407815114246</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.4968639208849351</v>
+        <v>0.5014814095786778</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>-0.4768781995754764</v>
+        <v>-0.4840305872426303</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.7631109263352297</v>
+        <v>0.75138192591237</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.623252481163216</v>
+        <v>0.6292956670454588</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>-0.5018936538191615</v>
+        <v>-0.5013356491052138</v>
       </c>
     </row>
     <row r="10">
@@ -878,7 +878,7 @@
         <v>1.920379432054464</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>-29.9174489067623</v>
+        <v>-29.91744890676231</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>6.21075273040597</v>
+        <v>5.581158477278748</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-3.010837190110364</v>
+        <v>-3.372260427689978</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-30.71194300132676</v>
+        <v>-30.4871092844544</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>6.0376585661017</v>
+        <v>6.321640837035981</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-5.350612320120886</v>
+        <v>-4.806607682572505</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-38.15617464814426</v>
+        <v>-37.46412809547643</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>7.724522629997281</v>
+        <v>8.179330197457341</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-2.512506021993828</v>
+        <v>-1.850583581589672</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-33.2304647647651</v>
+        <v>-33.0001920780028</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>17.58851516557299</v>
+        <v>17.12516259350392</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>8.62895297038936</v>
+        <v>8.51786617130578</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-21.67087442765528</v>
+        <v>-22.04784545150216</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>16.27161604399491</v>
+        <v>16.36242928384487</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>5.907638740547638</v>
+        <v>6.035317318091354</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>-29.37934144203907</v>
+        <v>-28.96497890102345</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>15.19442079484487</v>
+        <v>15.465120197246</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>5.407200446061927</v>
+        <v>6.102177041181362</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>-26.84602199381882</v>
+        <v>-26.96958919330071</v>
       </c>
     </row>
     <row r="13">
@@ -983,7 +983,7 @@
         <v>0.04266058396760372</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>-0.6646060772573562</v>
+        <v>-0.6646060772573563</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.1443715096131717</v>
+        <v>0.1345149673167282</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.07269292336403818</v>
+        <v>-0.07987932831941422</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.7245085286622577</v>
+        <v>-0.7239173310279933</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.1161889976858911</v>
+        <v>0.117225918788697</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.1024110016756419</v>
+        <v>-0.09060420525971538</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.7149105597781232</v>
+        <v>-0.7096972852530744</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1663170975040809</v>
+        <v>0.1727952878892589</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.05229824573118629</v>
+        <v>-0.03951605722901374</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.7024829186350874</v>
+        <v>-0.7003304426433185</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.4817127360978826</v>
+        <v>0.4636599406370563</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.2307638081538278</v>
+        <v>0.2276441782406889</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>-0.5831015826379431</v>
+        <v>-0.5928841856992461</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.3470854389693305</v>
+        <v>0.3469748106866846</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.1222132801224098</v>
+        <v>0.1250830290078578</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.6233231093844248</v>
+        <v>-0.6169681701518954</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.356249921325908</v>
+        <v>0.355237044052666</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.1248753447135441</v>
+        <v>0.1417053131506886</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>-0.6237367473783212</v>
+        <v>-0.621821372634668</v>
       </c>
     </row>
     <row r="16">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-2.332211254557719</v>
+        <v>-2.363540115937794</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-5.59284522467659</v>
+        <v>-5.565410337828814</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-38.67139202423412</v>
+        <v>-38.88781728828565</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>4.585418399329932</v>
+        <v>4.318163840864946</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-8.20754683583746</v>
+        <v>-8.909575830723178</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-39.3879183796971</v>
+        <v>-39.30727853348029</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>3.008765673711664</v>
+        <v>3.199616697917563</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-5.165723752505491</v>
+        <v>-5.205251088310506</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-37.90309744111858</v>
+        <v>-37.513404488644</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>9.644647229541489</v>
+        <v>9.655789039290234</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>6.661314668992826</v>
+        <v>6.584476529670955</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-30.07698724029867</v>
+        <v>-30.29314295879834</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>16.41049339392954</v>
+        <v>15.54686849190504</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>4.297993133781337</v>
+        <v>3.406696373468925</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>-30.41785463777176</v>
+        <v>-30.44894150570269</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>11.00401631199769</v>
+        <v>10.96601830109233</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>3.448211390568043</v>
+        <v>3.579534936615335</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>-31.67943166947585</v>
+        <v>-31.28787155707108</v>
       </c>
     </row>
     <row r="19">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.05023744560338125</v>
+        <v>-0.05218373693722694</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.1237082573633141</v>
+        <v>-0.1200827149963102</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.8479628757537128</v>
+        <v>-0.8460031709472973</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>0.090373150125903</v>
+        <v>0.08479028146883434</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.1611491686169191</v>
+        <v>-0.1753032638884366</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.7692947593775199</v>
+        <v>-0.7694348669676528</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.06462225252631086</v>
+        <v>0.06657719099261396</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.1106906966850619</v>
+        <v>-0.1098692284674419</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.792767532406876</v>
+        <v>-0.7911996762696029</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.2410301024318114</v>
+        <v>0.2434192372610992</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.1650019538999094</v>
+        <v>0.1657507259744356</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>-0.7495026541235035</v>
+        <v>-0.7509825923577585</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.3604208457031705</v>
+        <v>0.3466004180240048</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.0973875619945431</v>
+        <v>0.07426376234334349</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>-0.6757957008619632</v>
+        <v>-0.674686426472406</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2541578182254883</v>
+        <v>0.2513289336050447</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.07808442161232826</v>
+        <v>0.08084715964546346</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>-0.7261409034088692</v>
+        <v>-0.7222079464948233</v>
       </c>
     </row>
     <row r="22">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>10.84991819781299</v>
+        <v>9.950327499780537</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-5.951916918402109</v>
+        <v>-5.797117402985109</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-35.22549309592721</v>
+        <v>-35.76395000685483</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>8.056729494939797</v>
+        <v>8.033129447363303</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-3.130849092388888</v>
+        <v>-2.650220194053193</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-46.91742842024017</v>
+        <v>-46.40864188316022</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>12.12442829219382</v>
+        <v>12.02669783004728</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-0.9331970990983485</v>
+        <v>-0.4650594078897288</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-39.05360309060374</v>
+        <v>-38.81011502316223</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>28.1144025598725</v>
+        <v>27.48638513573234</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>10.69650477106236</v>
+        <v>12.84629620473719</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>-23.05014526756772</v>
+        <v>-22.96583956885466</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>25.9796227981207</v>
+        <v>26.14916654613755</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>15.76347956664505</v>
+        <v>15.31133162072693</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>-33.27139911769545</v>
+        <v>-32.85934590297418</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>24.44738717950231</v>
+        <v>24.7024595000435</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>11.68834887251541</v>
+        <v>11.4569389693119</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>-29.9168197333945</v>
+        <v>-30.00714285071496</v>
       </c>
     </row>
     <row r="25">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.2783540548740518</v>
+        <v>0.2749523048991337</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.1639229833117166</v>
+        <v>-0.1607088389066515</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.9335172340630665</v>
+        <v>-0.935496029963358</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.1678251027671871</v>
+        <v>0.1638097661900578</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.06109937779125661</v>
+        <v>-0.05658846755059293</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.9261359141106825</v>
+        <v>-0.9236417757772157</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2870981988356098</v>
+        <v>0.2827801455479356</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.02434824161425522</v>
+        <v>-0.01143470737535729</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.9201192987088309</v>
+        <v>-0.9196245752123439</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.9940713261603444</v>
+        <v>0.9733773890184154</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.3774468651636665</v>
+        <v>0.4728331285269249</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>-0.8499696013695704</v>
+        <v>-0.8437780278211918</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.6666437119619156</v>
+        <v>0.6593327649914796</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.4110695204421634</v>
+        <v>0.3909202083911524</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>-0.859003292657968</v>
+        <v>-0.857966392896908</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.6901829664267809</v>
+        <v>0.7172234941999011</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.326399400148861</v>
+        <v>0.3220230013037419</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>-0.8677259855866299</v>
+        <v>-0.8654181398793959</v>
       </c>
     </row>
     <row r="28">
@@ -1502,7 +1502,7 @@
         <v>7.277046197302528</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>-28.21997641946151</v>
+        <v>-28.2199764194615</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>15.24482055023325</v>
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>9.005483959024669</v>
+        <v>9.318580689586458</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>4.298795402874085</v>
+        <v>4.067365110321635</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-30.63931073051083</v>
+        <v>-30.79485152749516</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>12.40852284245642</v>
+        <v>12.21654991750124</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>2.012719530239266</v>
+        <v>1.927343446383256</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-35.80566724460918</v>
+        <v>-35.64334619470479</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>11.61140039311869</v>
+        <v>11.77043792535213</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>3.93227470349062</v>
+        <v>4.027888585997603</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-32.88757825095407</v>
+        <v>-32.75923000342333</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>15.31467513409471</v>
+        <v>15.73373586586745</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>10.67798202970116</v>
+        <v>10.39090119782778</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>-25.64398498791569</v>
+        <v>-25.73190393024647</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>18.15434064264965</v>
+        <v>17.95874516499538</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>7.989534839351625</v>
+        <v>8.084024193610539</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>-30.98601847538039</v>
+        <v>-31.05697652321685</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>15.9898773247694</v>
+        <v>16.10464476821391</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>8.272705455202857</v>
+        <v>8.426508732442837</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>-29.45085175139834</v>
+        <v>-29.35794939635563</v>
       </c>
     </row>
     <row r="31">
@@ -1607,7 +1607,7 @@
         <v>0.1961958787259721</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>-0.7608365978623027</v>
+        <v>-0.7608365978623026</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>0.3288971253176526</v>
@@ -1625,7 +1625,7 @@
         <v>0.1450269837568426</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>-0.7396115346734645</v>
+        <v>-0.7396115346734646</v>
       </c>
     </row>
     <row r="32">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>0.2343873394999002</v>
+        <v>0.2452144364616747</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>0.112832500166044</v>
+        <v>0.1076588164620614</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.7920311216107864</v>
+        <v>-0.7892862975404564</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.2592095508700483</v>
+        <v>0.2541241333373082</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.04151248868190666</v>
+        <v>0.04002173975569657</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.7441178535646867</v>
+        <v>-0.7433938493673391</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2706162453464441</v>
+        <v>0.2714357361257037</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>0.09085337488327722</v>
+        <v>0.09410913112007756</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.7614714136299211</v>
+        <v>-0.7578080796501228</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.4385044327917631</v>
+        <v>0.4451844055664837</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.302638803353343</v>
+        <v>0.2934683406095113</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>-0.7271603841810174</v>
+        <v>-0.7236186016705205</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.4083072827515597</v>
+        <v>0.4009767476914238</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.1800877769379136</v>
+        <v>0.1804660805275531</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>-0.6938725628158308</v>
+        <v>-0.6935122872576882</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.3915995662711563</v>
+        <v>0.3940115926412496</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.1990012904635867</v>
+        <v>0.2063628313719783</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>-0.7205478326950417</v>
+        <v>-0.7198727958107655</v>
       </c>
     </row>
     <row r="34">
